--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H2">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I2">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J2">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>11.361647333156</v>
+        <v>7.511033575446667</v>
       </c>
       <c r="R2">
-        <v>102.254825998404</v>
+        <v>67.59930217902</v>
       </c>
       <c r="S2">
-        <v>0.03711224364277667</v>
+        <v>0.02781598424398009</v>
       </c>
       <c r="T2">
-        <v>0.03984614955397618</v>
+        <v>0.03060065880671121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H3">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I3">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J3">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>25.615929307238</v>
+        <v>24.00915949499622</v>
       </c>
       <c r="R3">
-        <v>230.543363765142</v>
+        <v>216.082435454966</v>
       </c>
       <c r="S3">
-        <v>0.0836731313435591</v>
+        <v>0.08891431459009352</v>
       </c>
       <c r="T3">
-        <v>0.08983698580061113</v>
+        <v>0.0978155789828964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H4">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I4">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J4">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>5.129642187326001</v>
+        <v>5.973301022463556</v>
       </c>
       <c r="R4">
-        <v>46.166779685934</v>
+        <v>53.759709202172</v>
       </c>
       <c r="S4">
-        <v>0.01675571552909901</v>
+        <v>0.02212122279263218</v>
       </c>
       <c r="T4">
-        <v>0.01799003997933464</v>
+        <v>0.02433579143298084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H5">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I5">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J5">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>7.067886704769001</v>
+        <v>9.842355530597665</v>
       </c>
       <c r="R5">
-        <v>42.407320228614</v>
+        <v>59.05413318358599</v>
       </c>
       <c r="S5">
-        <v>0.02308689274850664</v>
+        <v>0.03644968480206456</v>
       </c>
       <c r="T5">
-        <v>0.01652507260673532</v>
+        <v>0.02673245614120917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H6">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I6">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J6">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>6.608021037789999</v>
+        <v>3.796538730477556</v>
       </c>
       <c r="R6">
-        <v>59.47218934011</v>
+        <v>34.168848574298</v>
       </c>
       <c r="S6">
-        <v>0.02158476491656205</v>
+        <v>0.01405991072305169</v>
       </c>
       <c r="T6">
-        <v>0.02317482551664992</v>
+        <v>0.01546745666503021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>8.54391</v>
       </c>
       <c r="I7">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J7">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>37.31698318699333</v>
+        <v>26.3207393821</v>
       </c>
       <c r="R7">
-        <v>335.85284868294</v>
+        <v>236.8866544389</v>
       </c>
       <c r="S7">
-        <v>0.1218940292229965</v>
+        <v>0.09747490336559454</v>
       </c>
       <c r="T7">
-        <v>0.130873459575964</v>
+        <v>0.1072331733418076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>8.54391</v>
       </c>
       <c r="I8">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J8">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
         <v>84.13473638526334</v>
@@ -948,10 +948,10 @@
         <v>757.21262746737</v>
       </c>
       <c r="S8">
-        <v>0.27482184088206</v>
+        <v>0.3115803541757874</v>
       </c>
       <c r="T8">
-        <v>0.2950668323341042</v>
+        <v>0.3427728469134063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>8.54391</v>
       </c>
       <c r="I9">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J9">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>16.84815288194334</v>
+        <v>20.93209914239333</v>
       </c>
       <c r="R9">
-        <v>151.63337593749</v>
+        <v>188.38889228154</v>
       </c>
       <c r="S9">
-        <v>0.05503363520717067</v>
+        <v>0.07751888393117948</v>
       </c>
       <c r="T9">
-        <v>0.05908773611402774</v>
+        <v>0.08527934505026352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>8.54391</v>
       </c>
       <c r="I10">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J10">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>23.214257721215</v>
+        <v>34.490336413045</v>
       </c>
       <c r="R10">
-        <v>139.28554632729</v>
+        <v>206.94201847827</v>
       </c>
       <c r="S10">
-        <v>0.07582819315485889</v>
+        <v>0.1277297784117254</v>
       </c>
       <c r="T10">
-        <v>0.05427609558253123</v>
+        <v>0.09367792116337896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>8.54391</v>
       </c>
       <c r="I11">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J11">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>21.70384300231666</v>
+        <v>13.30412192612333</v>
       </c>
       <c r="R11">
-        <v>195.33458702085</v>
+        <v>119.73709733511</v>
       </c>
       <c r="S11">
-        <v>0.07089450023113915</v>
+        <v>0.0492698164852804</v>
       </c>
       <c r="T11">
-        <v>0.07611700564253511</v>
+        <v>0.05420224682725845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H12">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I12">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J12">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N12">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O12">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P12">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q12">
-        <v>0.3981481023746666</v>
+        <v>3.41254568478</v>
       </c>
       <c r="R12">
-        <v>3.583332921372</v>
+        <v>20.47527410868</v>
       </c>
       <c r="S12">
-        <v>0.001300530543499394</v>
+        <v>0.01263785017683905</v>
       </c>
       <c r="T12">
-        <v>0.001396335264302378</v>
+        <v>0.009268688533415982</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H13">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I13">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J13">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P13">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q13">
-        <v>0.8976632829006667</v>
+        <v>10.908266193574</v>
       </c>
       <c r="R13">
-        <v>8.078969546106</v>
+        <v>65.449597161444</v>
       </c>
       <c r="S13">
-        <v>0.002932171496554485</v>
+        <v>0.04039712477940174</v>
       </c>
       <c r="T13">
-        <v>0.003148172476291566</v>
+        <v>0.02962753648654717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H14">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I14">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J14">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N14">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O14">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P14">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q14">
-        <v>0.1797589066846667</v>
+        <v>2.713895820508</v>
       </c>
       <c r="R14">
-        <v>1.617830160162</v>
+        <v>16.283374923048</v>
       </c>
       <c r="S14">
-        <v>0.0005871733337798811</v>
+        <v>0.01005050538315091</v>
       </c>
       <c r="T14">
-        <v>0.0006304279713483103</v>
+        <v>0.007371111597015793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H15">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I15">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J15">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N15">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O15">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P15">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q15">
-        <v>0.247681132567</v>
+        <v>4.471753129131</v>
       </c>
       <c r="R15">
-        <v>1.486086795402</v>
+        <v>17.887012516524</v>
       </c>
       <c r="S15">
-        <v>0.000809037832984035</v>
+        <v>0.0165604657912183</v>
       </c>
       <c r="T15">
-        <v>0.0005790908753852021</v>
+        <v>0.008097041677146184</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H16">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I16">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J16">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N16">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O16">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P16">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q16">
-        <v>0.2315659833033333</v>
+        <v>1.724910657322</v>
       </c>
       <c r="R16">
-        <v>2.08409384973</v>
+        <v>10.349463943932</v>
       </c>
       <c r="S16">
-        <v>0.0007563985168465237</v>
+        <v>0.006387947435515067</v>
       </c>
       <c r="T16">
-        <v>0.0008121192756433783</v>
+        <v>0.004684965743313746</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H17">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I17">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J17">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N17">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O17">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P17">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q17">
-        <v>5.151737171949333</v>
+        <v>2.42081266034</v>
       </c>
       <c r="R17">
-        <v>30.91042303169599</v>
+        <v>21.78731394306</v>
       </c>
       <c r="S17">
-        <v>0.01682788767355834</v>
+        <v>0.008965115937940745</v>
       </c>
       <c r="T17">
-        <v>0.01204501916532382</v>
+        <v>0.009862618973797614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H18">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I18">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J18">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>88.626007</v>
       </c>
       <c r="O18">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P18">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q18">
-        <v>11.61508814140133</v>
+        <v>7.738173007188666</v>
       </c>
       <c r="R18">
-        <v>69.69052884840799</v>
+        <v>69.643557064698</v>
       </c>
       <c r="S18">
-        <v>0.03794009516367142</v>
+        <v>0.02865716099962338</v>
       </c>
       <c r="T18">
-        <v>0.02715665698783448</v>
+        <v>0.03152604626270775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H19">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I19">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J19">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N19">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O19">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P19">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q19">
-        <v>2.325945134569333</v>
+        <v>1.925200119790667</v>
       </c>
       <c r="R19">
-        <v>13.955670807416</v>
+        <v>17.326801078116</v>
       </c>
       <c r="S19">
-        <v>0.007597581583258849</v>
+        <v>0.007129689364412297</v>
       </c>
       <c r="T19">
-        <v>0.005438176053686079</v>
+        <v>0.007843446765161124</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H20">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I20">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J20">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N20">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O20">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P20">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q20">
-        <v>3.204807682934</v>
+        <v>3.172199756093</v>
       </c>
       <c r="R20">
-        <v>12.819230731736</v>
+        <v>19.033198536558</v>
       </c>
       <c r="S20">
-        <v>0.01046834143585859</v>
+        <v>0.01174776514415901</v>
       </c>
       <c r="T20">
-        <v>0.004995333764605425</v>
+        <v>0.008615893887117195</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H21">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I21">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J21">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N21">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O21">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P21">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q21">
-        <v>2.996289764606666</v>
+        <v>1.223627738032667</v>
       </c>
       <c r="R21">
-        <v>17.97773858764</v>
+        <v>11.012649642294</v>
       </c>
       <c r="S21">
-        <v>0.009787228252010182</v>
+        <v>0.0045315214663502</v>
       </c>
       <c r="T21">
-        <v>0.007005475325111527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.620104</v>
-      </c>
-      <c r="H22">
-        <v>1.860312</v>
-      </c>
-      <c r="I22">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J22">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>13.10301133333333</v>
-      </c>
-      <c r="N22">
-        <v>39.309034</v>
-      </c>
-      <c r="O22">
-        <v>0.2036753411238415</v>
-      </c>
-      <c r="P22">
-        <v>0.2126567538160977</v>
-      </c>
-      <c r="Q22">
-        <v>8.125229739845333</v>
-      </c>
-      <c r="R22">
-        <v>73.127067658608</v>
-      </c>
-      <c r="S22">
-        <v>0.02654065004101061</v>
-      </c>
-      <c r="T22">
-        <v>0.02849579025653134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.620104</v>
-      </c>
-      <c r="H23">
-        <v>1.860312</v>
-      </c>
-      <c r="I23">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J23">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>29.54200233333333</v>
-      </c>
-      <c r="N23">
-        <v>88.626007</v>
-      </c>
-      <c r="O23">
-        <v>0.4592056932299319</v>
-      </c>
-      <c r="P23">
-        <v>0.479455154057023</v>
-      </c>
-      <c r="Q23">
-        <v>18.31911381490933</v>
-      </c>
-      <c r="R23">
-        <v>164.872024334184</v>
-      </c>
-      <c r="S23">
-        <v>0.05983845434408683</v>
-      </c>
-      <c r="T23">
-        <v>0.06424650645818157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.620104</v>
-      </c>
-      <c r="H24">
-        <v>1.860312</v>
-      </c>
-      <c r="I24">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J24">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>5.915846333333334</v>
-      </c>
-      <c r="N24">
-        <v>17.747539</v>
-      </c>
-      <c r="O24">
-        <v>0.09195687840951981</v>
-      </c>
-      <c r="P24">
-        <v>0.09601187431786275</v>
-      </c>
-      <c r="Q24">
-        <v>3.668439974685334</v>
-      </c>
-      <c r="R24">
-        <v>33.015959772168</v>
-      </c>
-      <c r="S24">
-        <v>0.01198277275621139</v>
-      </c>
-      <c r="T24">
-        <v>0.01286549419946596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.620104</v>
-      </c>
-      <c r="H25">
-        <v>1.860312</v>
-      </c>
-      <c r="I25">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J25">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>8.1511595</v>
-      </c>
-      <c r="N25">
-        <v>16.302319</v>
-      </c>
-      <c r="O25">
-        <v>0.1267029501450487</v>
-      </c>
-      <c r="P25">
-        <v>0.08819342236226138</v>
-      </c>
-      <c r="Q25">
-        <v>5.054566610588</v>
-      </c>
-      <c r="R25">
-        <v>30.327399663528</v>
-      </c>
-      <c r="S25">
-        <v>0.01651048497284052</v>
-      </c>
-      <c r="T25">
-        <v>0.01181782953300419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.620104</v>
-      </c>
-      <c r="H26">
-        <v>1.860312</v>
-      </c>
-      <c r="I26">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J26">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>7.620811666666666</v>
-      </c>
-      <c r="N26">
-        <v>22.862435</v>
-      </c>
-      <c r="O26">
-        <v>0.1184591370916582</v>
-      </c>
-      <c r="P26">
-        <v>0.123682795446755</v>
-      </c>
-      <c r="Q26">
-        <v>4.725695797746666</v>
-      </c>
-      <c r="R26">
-        <v>42.53126217972</v>
-      </c>
-      <c r="S26">
-        <v>0.01543624517510027</v>
-      </c>
-      <c r="T26">
-        <v>0.01657336968681503</v>
+        <v>0.004985174748834582</v>
       </c>
     </row>
   </sheetData>
